--- a/Week 2/JeffWhitson_Week2Homework.xlsx
+++ b/Week 2/JeffWhitson_Week2Homework.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\whits\Code\SavvyCoders\Homework\Week 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jwhitson\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D4E015A-1053-487D-B824-77CC14C98924}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{079F1F3E-2D12-4E68-9135-042C5C692905}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9915" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Payments" sheetId="4" r:id="rId1"/>
@@ -21,9 +21,9 @@
   <definedNames>
     <definedName name="_xlcn.WorksheetConnection_JeffWhitson_Week2Homework.xlsxTable41" hidden="1">Table4[]</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="76" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{FCE2AD5D-F65C-4FA6-A056-5C36A1767C68}">
@@ -44,6 +44,17 @@
           </ext>
         </x15:extLst>
       </x15:dataModel>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -600,7 +611,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -678,11 +689,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -732,136 +744,21 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="34">
-    <dxf>
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
+  <dxfs count="16">
     <dxf>
       <font>
         <b val="0"/>
@@ -1039,17 +936,80 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
-      <border outline="0">
-        <top style="thin">
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
           <color indexed="64"/>
-        </top>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
       </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -4440,7 +4400,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{51EDB3D5-FB0E-48E7-B742-EFBD8227F999}" name="PivotTable15" cacheId="76" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{51EDB3D5-FB0E-48E7-B742-EFBD8227F999}" name="PivotTable15" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
   <location ref="A3:E21" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
@@ -4546,20 +4506,20 @@
     </i>
   </colItems>
   <dataFields count="1">
-    <dataField name="Sum of Tax Inclusive Amount" fld="1" baseField="0" baseItem="0" numFmtId="168"/>
+    <dataField name="Sum of Tax Inclusive Amount" fld="1" baseField="0" baseItem="0" numFmtId="164"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="20">
+    <format dxfId="15">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="19">
+    <format dxfId="14">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="18">
+    <format dxfId="13">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -4733,18 +4693,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{7DDED7EF-FBCD-4DAE-854E-FA7F5E0851BD}" name="Table4" displayName="Table4" ref="A2:I210" totalsRowShown="0" headerRowDxfId="21" dataDxfId="22" headerRowBorderDxfId="32" tableBorderDxfId="33">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{7DDED7EF-FBCD-4DAE-854E-FA7F5E0851BD}" name="Table4" displayName="Table4" ref="A2:I210" totalsRowShown="0" headerRowDxfId="12" dataDxfId="10" headerRowBorderDxfId="11" tableBorderDxfId="9">
   <autoFilter ref="A2:I210" xr:uid="{7DDED7EF-FBCD-4DAE-854E-FA7F5E0851BD}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{C0ECF787-8923-4027-A899-2A62CBB9B549}" name="Document Date" dataDxfId="31"/>
-    <tableColumn id="2" xr3:uid="{B23AF36D-978B-4EB7-936D-6536A4358AE4}" name="Supplier" dataDxfId="30"/>
-    <tableColumn id="3" xr3:uid="{B461BD67-6A12-4D6D-B422-2A84426F1E80}" name="Reference" dataDxfId="29"/>
-    <tableColumn id="4" xr3:uid="{C8ABC175-8AAF-467D-A369-99F85B8EA39C}" name="Description" dataDxfId="28"/>
-    <tableColumn id="5" xr3:uid="{F677ADA0-B3DB-4D28-9A69-5E9E3676307F}" name="Tax Inclusive Amount" dataDxfId="27" dataCellStyle="Comma"/>
-    <tableColumn id="6" xr3:uid="{D596DDF3-D564-4897-9AF2-52B77FDB7A21}" name="Column1" dataDxfId="26"/>
-    <tableColumn id="7" xr3:uid="{295B5CE2-C35D-46CA-BD6D-764DF8FE5C4A}" name="Bank Code" dataDxfId="25"/>
-    <tableColumn id="8" xr3:uid="{5CEBCF7C-6F37-4E24-AAFB-4D0AA266965B}" name="Account Code" dataDxfId="24"/>
-    <tableColumn id="9" xr3:uid="{EC54F56E-2F2C-43F1-8086-B725658A6263}" name="Payment Date" dataDxfId="23"/>
+    <tableColumn id="1" xr3:uid="{C0ECF787-8923-4027-A899-2A62CBB9B549}" name="Document Date" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{B23AF36D-978B-4EB7-936D-6536A4358AE4}" name="Supplier" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{B461BD67-6A12-4D6D-B422-2A84426F1E80}" name="Reference" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{C8ABC175-8AAF-467D-A369-99F85B8EA39C}" name="Description" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{F677ADA0-B3DB-4D28-9A69-5E9E3676307F}" name="Tax Inclusive Amount" dataDxfId="4" dataCellStyle="Comma"/>
+    <tableColumn id="6" xr3:uid="{D596DDF3-D564-4897-9AF2-52B77FDB7A21}" name="Column1" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{295B5CE2-C35D-46CA-BD6D-764DF8FE5C4A}" name="Bank Code" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{5CEBCF7C-6F37-4E24-AAFB-4D0AA266965B}" name="Account Code" dataDxfId="1"/>
+    <tableColumn id="9" xr3:uid="{EC54F56E-2F2C-43F1-8086-B725658A6263}" name="Payment Date" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5063,7 +5023,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A737218B-9521-4928-B89A-0D1597AA1DA5}">
   <dimension ref="A3:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
@@ -5381,7 +5341,7 @@
       <c r="E1" s="3"/>
       <c r="I1" s="4"/>
     </row>
-    <row r="2" spans="1:9" s="10" customFormat="1" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" s="10" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>1</v>
       </c>
@@ -11743,8 +11703,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E79E85D-7717-4FE2-B523-7BDF6BC9436F}">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K33" sqref="K33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11788,14 +11748,14 @@
       <c r="B4">
         <v>2000</v>
       </c>
-      <c r="C4">
-        <v>21</v>
+      <c r="C4" s="24">
+        <v>0.21</v>
       </c>
       <c r="D4">
         <v>3</v>
       </c>
       <c r="E4">
-        <f>2000 *0.21</f>
+        <f>B4*C4</f>
         <v>420</v>
       </c>
       <c r="F4">
@@ -11814,22 +11774,22 @@
       <c r="B5">
         <v>450</v>
       </c>
-      <c r="C5">
-        <v>25</v>
+      <c r="C5" s="24">
+        <v>0.25</v>
       </c>
       <c r="D5">
         <v>3</v>
       </c>
       <c r="E5">
-        <f>450*0.25</f>
+        <f t="shared" ref="E5:E8" si="0">B5*C5</f>
         <v>112.5</v>
       </c>
       <c r="F5">
-        <f t="shared" ref="F5:F8" si="0">B5+E5</f>
+        <f t="shared" ref="F5:F8" si="1">B5+E5</f>
         <v>562.5</v>
       </c>
       <c r="G5">
-        <f t="shared" ref="G5:G8" si="1">F5/D5</f>
+        <f t="shared" ref="G5:G8" si="2">F5/D5</f>
         <v>187.5</v>
       </c>
     </row>
@@ -11840,22 +11800,22 @@
       <c r="B6">
         <v>975</v>
       </c>
-      <c r="C6">
-        <v>27</v>
+      <c r="C6" s="24">
+        <v>0.27</v>
       </c>
       <c r="D6">
         <v>3</v>
       </c>
       <c r="E6">
-        <f>975*0.27</f>
+        <f t="shared" si="0"/>
         <v>263.25</v>
       </c>
       <c r="F6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1238.25</v>
       </c>
       <c r="G6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>412.75</v>
       </c>
     </row>
@@ -11866,22 +11826,22 @@
       <c r="B7">
         <v>150</v>
       </c>
-      <c r="C7">
-        <v>15</v>
+      <c r="C7" s="24">
+        <v>0.15</v>
       </c>
       <c r="D7">
         <v>3</v>
       </c>
       <c r="E7">
-        <f>150*0.15</f>
+        <f t="shared" si="0"/>
         <v>22.5</v>
       </c>
       <c r="F7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>172.5</v>
       </c>
       <c r="G7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>57.5</v>
       </c>
     </row>
@@ -11892,27 +11852,28 @@
       <c r="B8">
         <v>780</v>
       </c>
-      <c r="C8">
-        <v>25</v>
+      <c r="C8" s="24">
+        <v>0.25</v>
       </c>
       <c r="D8">
         <v>3</v>
       </c>
       <c r="E8">
-        <f>780*0.25</f>
+        <f t="shared" si="0"/>
         <v>195</v>
       </c>
       <c r="F8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>975</v>
       </c>
       <c r="G8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>325</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Week 2/JeffWhitson_Week2Homework.xlsx
+++ b/Week 2/JeffWhitson_Week2Homework.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jwhitson\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\whits\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{079F1F3E-2D12-4E68-9135-042C5C692905}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47907BF3-B463-4D67-908B-145AF77F1963}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9915" yWindow="-16320" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Payments" sheetId="4" r:id="rId1"/>
@@ -609,7 +609,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
@@ -667,7 +668,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -688,13 +689,29 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -751,10 +768,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="3" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
@@ -1895,7 +1918,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Credit Card Debt'!$B$1</c:f>
+              <c:f>'Credit Card Debt'!$B$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1919,6 +1942,9 @@
               <c:f>'Credit Card Debt'!$A$2:$A$8</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
+                <c:pt idx="1">
+                  <c:v>Credit Card</c:v>
+                </c:pt>
                 <c:pt idx="2">
                   <c:v>Discover</c:v>
                 </c:pt>
@@ -1943,19 +1969,22 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
-                <c:pt idx="2">
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)">
                   <c:v>2000</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="3" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)">
                   <c:v>450</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="4" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)">
                   <c:v>975</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="5" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)">
                   <c:v>150</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="6" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)">
                   <c:v>780</c:v>
                 </c:pt>
               </c:numCache>
@@ -1972,7 +2001,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Credit Card Debt'!$G$1</c:f>
+              <c:f>'Credit Card Debt'!$G$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1996,6 +2025,9 @@
               <c:f>'Credit Card Debt'!$A$2:$A$8</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
+                <c:pt idx="1">
+                  <c:v>Credit Card</c:v>
+                </c:pt>
                 <c:pt idx="2">
                   <c:v>Discover</c:v>
                 </c:pt>
@@ -2020,19 +2052,22 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
-                <c:pt idx="2">
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)">
                   <c:v>806.66666666666663</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="3" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)">
                   <c:v>187.5</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="4" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)">
                   <c:v>412.75</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="5" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)">
                   <c:v>57.5</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="6" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)">
                   <c:v>325</c:v>
                 </c:pt>
               </c:numCache>
@@ -2325,7 +2360,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Credit Card Debt'!$G$1</c:f>
+              <c:f>'Credit Card Debt'!$G$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2349,6 +2384,9 @@
               <c:f>'Credit Card Debt'!$A$2:$A$8</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
+                <c:pt idx="1">
+                  <c:v>Credit Card</c:v>
+                </c:pt>
                 <c:pt idx="2">
                   <c:v>Discover</c:v>
                 </c:pt>
@@ -2373,19 +2411,22 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
-                <c:pt idx="2">
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)">
                   <c:v>806.66666666666663</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="3" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)">
                   <c:v>187.5</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="4" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)">
                   <c:v>412.75</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="5" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)">
                   <c:v>57.5</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="6" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)">
                   <c:v>325</c:v>
                 </c:pt>
               </c:numCache>
@@ -11701,16 +11742,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E79E85D-7717-4FE2-B523-7BDF6BC9436F}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A3:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
@@ -11718,155 +11759,155 @@
     <col min="7" max="7" width="16.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="27" t="s">
         <v>157</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B3" s="27" t="s">
         <v>158</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C3" s="27" t="s">
         <v>159</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D3" s="27" t="s">
         <v>160</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E3" s="27" t="s">
         <v>161</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F3" s="27" t="s">
         <v>162</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G3" s="27" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="24" t="s">
         <v>164</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="25">
         <v>2000</v>
       </c>
-      <c r="C4" s="24">
+      <c r="C4" s="26">
         <v>0.21</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="24">
         <v>3</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="25">
         <f>B4*C4</f>
         <v>420</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="25">
         <f>B4+E4</f>
         <v>2420</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="25">
         <f>F4/D4</f>
         <v>806.66666666666663</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="24" t="s">
         <v>165</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="25">
         <v>450</v>
       </c>
-      <c r="C5" s="24">
+      <c r="C5" s="26">
         <v>0.25</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="24">
         <v>3</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="25">
         <f t="shared" ref="E5:E8" si="0">B5*C5</f>
         <v>112.5</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="25">
         <f t="shared" ref="F5:F8" si="1">B5+E5</f>
         <v>562.5</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="25">
         <f t="shared" ref="G5:G8" si="2">F5/D5</f>
         <v>187.5</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="24" t="s">
         <v>166</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="25">
         <v>975</v>
       </c>
-      <c r="C6" s="24">
+      <c r="C6" s="26">
         <v>0.27</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="24">
         <v>3</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="25">
         <f t="shared" si="0"/>
         <v>263.25</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="25">
         <f t="shared" si="1"/>
         <v>1238.25</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="25">
         <f t="shared" si="2"/>
         <v>412.75</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="24" t="s">
         <v>167</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="25">
         <v>150</v>
       </c>
-      <c r="C7" s="24">
+      <c r="C7" s="26">
         <v>0.15</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="24">
         <v>3</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="25">
         <f t="shared" si="0"/>
         <v>22.5</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="25">
         <f t="shared" si="1"/>
         <v>172.5</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="25">
         <f t="shared" si="2"/>
         <v>57.5</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="24" t="s">
         <v>168</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="25">
         <v>780</v>
       </c>
-      <c r="C8" s="24">
+      <c r="C8" s="26">
         <v>0.25</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="24">
         <v>3</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="25">
         <f t="shared" si="0"/>
         <v>195</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="25">
         <f t="shared" si="1"/>
         <v>975</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="25">
         <f t="shared" si="2"/>
         <v>325</v>
       </c>

--- a/Week 2/JeffWhitson_Week2Homework.xlsx
+++ b/Week 2/JeffWhitson_Week2Homework.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\whits\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\whits\Code\SavvyCoders\Homework\Week 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47907BF3-B463-4D67-908B-145AF77F1963}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D4E015A-1053-487D-B824-77CC14C98924}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9915" yWindow="-16320" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9915" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Payments" sheetId="4" r:id="rId1"/>
@@ -21,9 +21,9 @@
   <definedNames>
     <definedName name="_xlcn.WorksheetConnection_JeffWhitson_Week2Homework.xlsxTable41" hidden="1">Table4[]</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId5"/>
+    <pivotCache cacheId="76" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{FCE2AD5D-F65C-4FA6-A056-5C36A1767C68}">
@@ -44,17 +44,6 @@
           </ext>
         </x15:extLst>
       </x15:dataModel>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -609,10 +598,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+  <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -668,7 +656,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -689,29 +677,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -761,27 +732,136 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Currency" xfId="3" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="16">
+  <dxfs count="34">
+    <dxf>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -959,80 +1039,17 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
+      <border outline="0">
+        <top style="thin">
           <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
+        </top>
       </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -1918,7 +1935,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Credit Card Debt'!$B$3</c:f>
+              <c:f>'Credit Card Debt'!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1942,9 +1959,6 @@
               <c:f>'Credit Card Debt'!$A$2:$A$8</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
-                <c:pt idx="1">
-                  <c:v>Credit Card</c:v>
-                </c:pt>
                 <c:pt idx="2">
                   <c:v>Discover</c:v>
                 </c:pt>
@@ -1969,22 +1983,19 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)">
+                <c:pt idx="2">
                   <c:v>2000</c:v>
                 </c:pt>
-                <c:pt idx="3" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)">
+                <c:pt idx="3">
                   <c:v>450</c:v>
                 </c:pt>
-                <c:pt idx="4" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)">
+                <c:pt idx="4">
                   <c:v>975</c:v>
                 </c:pt>
-                <c:pt idx="5" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)">
+                <c:pt idx="5">
                   <c:v>150</c:v>
                 </c:pt>
-                <c:pt idx="6" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)">
+                <c:pt idx="6">
                   <c:v>780</c:v>
                 </c:pt>
               </c:numCache>
@@ -2001,7 +2012,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Credit Card Debt'!$G$3</c:f>
+              <c:f>'Credit Card Debt'!$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2025,9 +2036,6 @@
               <c:f>'Credit Card Debt'!$A$2:$A$8</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
-                <c:pt idx="1">
-                  <c:v>Credit Card</c:v>
-                </c:pt>
                 <c:pt idx="2">
                   <c:v>Discover</c:v>
                 </c:pt>
@@ -2052,22 +2060,19 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)">
+                <c:pt idx="2">
                   <c:v>806.66666666666663</c:v>
                 </c:pt>
-                <c:pt idx="3" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)">
+                <c:pt idx="3">
                   <c:v>187.5</c:v>
                 </c:pt>
-                <c:pt idx="4" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)">
+                <c:pt idx="4">
                   <c:v>412.75</c:v>
                 </c:pt>
-                <c:pt idx="5" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)">
+                <c:pt idx="5">
                   <c:v>57.5</c:v>
                 </c:pt>
-                <c:pt idx="6" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)">
+                <c:pt idx="6">
                   <c:v>325</c:v>
                 </c:pt>
               </c:numCache>
@@ -2360,7 +2365,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Credit Card Debt'!$G$3</c:f>
+              <c:f>'Credit Card Debt'!$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2384,9 +2389,6 @@
               <c:f>'Credit Card Debt'!$A$2:$A$8</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
-                <c:pt idx="1">
-                  <c:v>Credit Card</c:v>
-                </c:pt>
                 <c:pt idx="2">
                   <c:v>Discover</c:v>
                 </c:pt>
@@ -2411,22 +2413,19 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)">
+                <c:pt idx="2">
                   <c:v>806.66666666666663</c:v>
                 </c:pt>
-                <c:pt idx="3" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)">
+                <c:pt idx="3">
                   <c:v>187.5</c:v>
                 </c:pt>
-                <c:pt idx="4" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)">
+                <c:pt idx="4">
                   <c:v>412.75</c:v>
                 </c:pt>
-                <c:pt idx="5" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)">
+                <c:pt idx="5">
                   <c:v>57.5</c:v>
                 </c:pt>
-                <c:pt idx="6" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)">
+                <c:pt idx="6">
                   <c:v>325</c:v>
                 </c:pt>
               </c:numCache>
@@ -4441,7 +4440,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{51EDB3D5-FB0E-48E7-B742-EFBD8227F999}" name="PivotTable15" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{51EDB3D5-FB0E-48E7-B742-EFBD8227F999}" name="PivotTable15" cacheId="76" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
   <location ref="A3:E21" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
@@ -4547,20 +4546,20 @@
     </i>
   </colItems>
   <dataFields count="1">
-    <dataField name="Sum of Tax Inclusive Amount" fld="1" baseField="0" baseItem="0" numFmtId="164"/>
+    <dataField name="Sum of Tax Inclusive Amount" fld="1" baseField="0" baseItem="0" numFmtId="168"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="15">
+    <format dxfId="20">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="14">
+    <format dxfId="19">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="13">
+    <format dxfId="18">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -4734,18 +4733,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{7DDED7EF-FBCD-4DAE-854E-FA7F5E0851BD}" name="Table4" displayName="Table4" ref="A2:I210" totalsRowShown="0" headerRowDxfId="12" dataDxfId="10" headerRowBorderDxfId="11" tableBorderDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{7DDED7EF-FBCD-4DAE-854E-FA7F5E0851BD}" name="Table4" displayName="Table4" ref="A2:I210" totalsRowShown="0" headerRowDxfId="21" dataDxfId="22" headerRowBorderDxfId="32" tableBorderDxfId="33">
   <autoFilter ref="A2:I210" xr:uid="{7DDED7EF-FBCD-4DAE-854E-FA7F5E0851BD}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{C0ECF787-8923-4027-A899-2A62CBB9B549}" name="Document Date" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{B23AF36D-978B-4EB7-936D-6536A4358AE4}" name="Supplier" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{B461BD67-6A12-4D6D-B422-2A84426F1E80}" name="Reference" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{C8ABC175-8AAF-467D-A369-99F85B8EA39C}" name="Description" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{F677ADA0-B3DB-4D28-9A69-5E9E3676307F}" name="Tax Inclusive Amount" dataDxfId="4" dataCellStyle="Comma"/>
-    <tableColumn id="6" xr3:uid="{D596DDF3-D564-4897-9AF2-52B77FDB7A21}" name="Column1" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{295B5CE2-C35D-46CA-BD6D-764DF8FE5C4A}" name="Bank Code" dataDxfId="2"/>
-    <tableColumn id="8" xr3:uid="{5CEBCF7C-6F37-4E24-AAFB-4D0AA266965B}" name="Account Code" dataDxfId="1"/>
-    <tableColumn id="9" xr3:uid="{EC54F56E-2F2C-43F1-8086-B725658A6263}" name="Payment Date" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{C0ECF787-8923-4027-A899-2A62CBB9B549}" name="Document Date" dataDxfId="31"/>
+    <tableColumn id="2" xr3:uid="{B23AF36D-978B-4EB7-936D-6536A4358AE4}" name="Supplier" dataDxfId="30"/>
+    <tableColumn id="3" xr3:uid="{B461BD67-6A12-4D6D-B422-2A84426F1E80}" name="Reference" dataDxfId="29"/>
+    <tableColumn id="4" xr3:uid="{C8ABC175-8AAF-467D-A369-99F85B8EA39C}" name="Description" dataDxfId="28"/>
+    <tableColumn id="5" xr3:uid="{F677ADA0-B3DB-4D28-9A69-5E9E3676307F}" name="Tax Inclusive Amount" dataDxfId="27" dataCellStyle="Comma"/>
+    <tableColumn id="6" xr3:uid="{D596DDF3-D564-4897-9AF2-52B77FDB7A21}" name="Column1" dataDxfId="26"/>
+    <tableColumn id="7" xr3:uid="{295B5CE2-C35D-46CA-BD6D-764DF8FE5C4A}" name="Bank Code" dataDxfId="25"/>
+    <tableColumn id="8" xr3:uid="{5CEBCF7C-6F37-4E24-AAFB-4D0AA266965B}" name="Account Code" dataDxfId="24"/>
+    <tableColumn id="9" xr3:uid="{EC54F56E-2F2C-43F1-8086-B725658A6263}" name="Payment Date" dataDxfId="23"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5064,7 +5063,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A737218B-9521-4928-B89A-0D1597AA1DA5}">
   <dimension ref="A3:E21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
@@ -5382,7 +5381,7 @@
       <c r="E1" s="3"/>
       <c r="I1" s="4"/>
     </row>
-    <row r="2" spans="1:9" s="10" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" s="10" customFormat="1" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>1</v>
       </c>
@@ -11742,16 +11741,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E79E85D-7717-4FE2-B523-7BDF6BC9436F}">
-  <dimension ref="A3:G8"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
@@ -11759,162 +11758,161 @@
     <col min="7" max="7" width="16.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="27" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>157</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="B1" t="s">
         <v>158</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C1" t="s">
         <v>159</v>
       </c>
-      <c r="D3" s="27" t="s">
+      <c r="D1" t="s">
         <v>160</v>
       </c>
-      <c r="E3" s="27" t="s">
+      <c r="E1" t="s">
         <v>161</v>
       </c>
-      <c r="F3" s="27" t="s">
+      <c r="F1" t="s">
         <v>162</v>
       </c>
-      <c r="G3" s="27" t="s">
+      <c r="G1" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="24" t="s">
+      <c r="A4" t="s">
         <v>164</v>
       </c>
-      <c r="B4" s="25">
+      <c r="B4">
         <v>2000</v>
       </c>
-      <c r="C4" s="26">
-        <v>0.21</v>
-      </c>
-      <c r="D4" s="24">
+      <c r="C4">
+        <v>21</v>
+      </c>
+      <c r="D4">
         <v>3</v>
       </c>
-      <c r="E4" s="25">
-        <f>B4*C4</f>
+      <c r="E4">
+        <f>2000 *0.21</f>
         <v>420</v>
       </c>
-      <c r="F4" s="25">
+      <c r="F4">
         <f>B4+E4</f>
         <v>2420</v>
       </c>
-      <c r="G4" s="25">
+      <c r="G4">
         <f>F4/D4</f>
         <v>806.66666666666663</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="24" t="s">
+      <c r="A5" t="s">
         <v>165</v>
       </c>
-      <c r="B5" s="25">
+      <c r="B5">
         <v>450</v>
       </c>
-      <c r="C5" s="26">
-        <v>0.25</v>
-      </c>
-      <c r="D5" s="24">
+      <c r="C5">
+        <v>25</v>
+      </c>
+      <c r="D5">
         <v>3</v>
       </c>
-      <c r="E5" s="25">
-        <f t="shared" ref="E5:E8" si="0">B5*C5</f>
+      <c r="E5">
+        <f>450*0.25</f>
         <v>112.5</v>
       </c>
-      <c r="F5" s="25">
-        <f t="shared" ref="F5:F8" si="1">B5+E5</f>
+      <c r="F5">
+        <f t="shared" ref="F5:F8" si="0">B5+E5</f>
         <v>562.5</v>
       </c>
-      <c r="G5" s="25">
-        <f t="shared" ref="G5:G8" si="2">F5/D5</f>
+      <c r="G5">
+        <f t="shared" ref="G5:G8" si="1">F5/D5</f>
         <v>187.5</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="24" t="s">
+      <c r="A6" t="s">
         <v>166</v>
       </c>
-      <c r="B6" s="25">
+      <c r="B6">
         <v>975</v>
       </c>
-      <c r="C6" s="26">
-        <v>0.27</v>
-      </c>
-      <c r="D6" s="24">
+      <c r="C6">
+        <v>27</v>
+      </c>
+      <c r="D6">
         <v>3</v>
       </c>
-      <c r="E6" s="25">
+      <c r="E6">
+        <f>975*0.27</f>
+        <v>263.25</v>
+      </c>
+      <c r="F6">
         <f t="shared" si="0"/>
-        <v>263.25</v>
-      </c>
-      <c r="F6" s="25">
+        <v>1238.25</v>
+      </c>
+      <c r="G6">
         <f t="shared" si="1"/>
-        <v>1238.25</v>
-      </c>
-      <c r="G6" s="25">
-        <f t="shared" si="2"/>
         <v>412.75</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="24" t="s">
+      <c r="A7" t="s">
         <v>167</v>
       </c>
-      <c r="B7" s="25">
+      <c r="B7">
         <v>150</v>
       </c>
-      <c r="C7" s="26">
-        <v>0.15</v>
-      </c>
-      <c r="D7" s="24">
+      <c r="C7">
+        <v>15</v>
+      </c>
+      <c r="D7">
         <v>3</v>
       </c>
-      <c r="E7" s="25">
+      <c r="E7">
+        <f>150*0.15</f>
+        <v>22.5</v>
+      </c>
+      <c r="F7">
         <f t="shared" si="0"/>
-        <v>22.5</v>
-      </c>
-      <c r="F7" s="25">
+        <v>172.5</v>
+      </c>
+      <c r="G7">
         <f t="shared" si="1"/>
-        <v>172.5</v>
-      </c>
-      <c r="G7" s="25">
-        <f t="shared" si="2"/>
         <v>57.5</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="24" t="s">
+      <c r="A8" t="s">
         <v>168</v>
       </c>
-      <c r="B8" s="25">
+      <c r="B8">
         <v>780</v>
       </c>
-      <c r="C8" s="26">
-        <v>0.25</v>
-      </c>
-      <c r="D8" s="24">
+      <c r="C8">
+        <v>25</v>
+      </c>
+      <c r="D8">
         <v>3</v>
       </c>
-      <c r="E8" s="25">
+      <c r="E8">
+        <f>780*0.25</f>
+        <v>195</v>
+      </c>
+      <c r="F8">
         <f t="shared" si="0"/>
-        <v>195</v>
-      </c>
-      <c r="F8" s="25">
+        <v>975</v>
+      </c>
+      <c r="G8">
         <f t="shared" si="1"/>
-        <v>975</v>
-      </c>
-      <c r="G8" s="25">
-        <f t="shared" si="2"/>
         <v>325</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>